--- a/sandbox/002_volochek_4.xlsx
+++ b/sandbox/002_volochek_4.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BoatRaceTrainer-host\sandbox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C9608A-F047-4499-9685-699D17411750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15156" windowHeight="7056"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="207">
   <si>
     <t>Иванов Илья</t>
   </si>
@@ -632,12 +649,15 @@
   </si>
   <si>
     <t>Антонова Лариса</t>
+  </si>
+  <si>
+    <t>7_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,14 +766,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="4"/>
-    <cellStyle name="Обычный 3 10" xfId="5"/>
-    <cellStyle name="Обычный 4" xfId="6"/>
-    <cellStyle name="Обычный 5" xfId="7"/>
-    <cellStyle name="Обычный 6" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 3 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Обычный 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1052,26 +1072,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>156</v>
@@ -1083,7 +1103,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>155</v>
@@ -1095,7 +1115,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1115,10 +1135,10 @@
         <v>91</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1141,10 +1161,10 @@
         <v>95</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1167,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1190,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1216,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1236,10 +1256,10 @@
         <v>100</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1262,10 +1282,10 @@
         <v>90</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1288,10 +1308,10 @@
         <v>106</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1311,10 +1331,10 @@
         <v>78</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>205</v>
       </c>
@@ -1331,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>175</v>
       </c>
@@ -1342,12 +1362,12 @@
       <c r="E14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1373,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1399,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1477,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1503,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1529,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1555,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>176</v>
       </c>
@@ -1567,12 +1587,12 @@
       <c r="F26" s="6"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>18</v>
       </c>
@@ -1598,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>19</v>
       </c>
@@ -1624,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20</v>
       </c>
@@ -1650,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>21</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>22</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>23</v>
       </c>
@@ -1728,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>24</v>
       </c>
@@ -1754,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25</v>
       </c>
@@ -1780,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>177</v>
       </c>
@@ -1792,12 +1812,12 @@
       <c r="F38" s="6"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>26</v>
       </c>
@@ -1823,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27</v>
       </c>
@@ -1849,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>28</v>
       </c>
@@ -1875,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>29</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30</v>
       </c>
@@ -1931,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>31</v>
       </c>
@@ -1957,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>32</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>178</v>
       </c>
@@ -1995,12 +2015,12 @@
       <c r="F49" s="6"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>33</v>
       </c>
@@ -2026,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>34</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>35</v>
       </c>
@@ -2078,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>36</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>37</v>
       </c>
@@ -2130,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>38</v>
       </c>
@@ -2156,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>39</v>
       </c>
@@ -2182,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>179</v>
       </c>
@@ -2194,12 +2214,12 @@
       <c r="F60" s="6"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40</v>
       </c>
@@ -2225,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43</v>
       </c>
@@ -2303,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44</v>
       </c>
@@ -2329,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45</v>
       </c>
@@ -2355,7 +2375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>180</v>
       </c>
@@ -2367,15 +2387,15 @@
       <c r="F71" s="6"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>46</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>47</v>
       </c>
@@ -2427,7 +2447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>48</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>49</v>
       </c>
@@ -2479,7 +2499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>50</v>
       </c>
@@ -2505,7 +2525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>51</v>
       </c>
@@ -2531,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>52</v>
       </c>
@@ -2553,11 +2573,11 @@
       <c r="H80" s="1">
         <v>75</v>
       </c>
-      <c r="I80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>53</v>
       </c>
@@ -2579,11 +2599,11 @@
       <c r="H81" s="1">
         <v>69</v>
       </c>
-      <c r="I81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>54</v>
       </c>
@@ -2605,11 +2625,11 @@
       <c r="H82" s="1">
         <v>50</v>
       </c>
-      <c r="I82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>181</v>
       </c>
@@ -2622,15 +2642,15 @@
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>55</v>
       </c>
@@ -2652,11 +2672,11 @@
       <c r="H87" s="1">
         <v>69</v>
       </c>
-      <c r="I87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>56</v>
       </c>
@@ -2678,11 +2698,11 @@
       <c r="H88" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>57</v>
       </c>
@@ -2704,11 +2724,11 @@
       <c r="H89" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>58</v>
       </c>
@@ -2734,7 +2754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>59</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>60</v>
       </c>
@@ -2786,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>61</v>
       </c>
@@ -2812,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>62</v>
       </c>
@@ -2838,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>63</v>
       </c>
@@ -2864,7 +2884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>182</v>
       </c>
@@ -2876,12 +2896,12 @@
       <c r="F97" s="6"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>64</v>
       </c>
@@ -2907,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>65</v>
       </c>
@@ -2933,7 +2953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>66</v>
       </c>
@@ -2959,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>67</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>68</v>
       </c>
@@ -3011,7 +3031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>69</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>183</v>
       </c>
@@ -3049,12 +3069,12 @@
       <c r="F107" s="6"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>70</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>71</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>72</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>73</v>
       </c>
@@ -3158,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>74</v>
       </c>
@@ -3184,7 +3204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>75</v>
       </c>
@@ -3210,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
         <v>193</v>
       </c>
@@ -3223,7 +3243,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
         <v>1</v>
       </c>
@@ -3234,7 +3254,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3243,7 +3263,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>76</v>
       </c>
@@ -3269,7 +3289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>77</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>78</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>79</v>
       </c>
@@ -3351,7 +3371,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>80</v>
       </c>
@@ -3377,7 +3397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>81</v>
       </c>
@@ -3403,7 +3423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>82</v>
       </c>
@@ -3429,12 +3449,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +3465,7 @@
       <c r="E129" s="6"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>83</v>
       </c>
@@ -3471,7 +3491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>84</v>
       </c>
@@ -3497,7 +3517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>85</v>
       </c>
@@ -3523,7 +3543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>86</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>87</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>88</v>
       </c>
@@ -3595,7 +3615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>89</v>
       </c>
@@ -3621,12 +3641,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3657,7 @@
       <c r="E140" s="6"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>90</v>
       </c>
@@ -3663,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>91</v>
       </c>
@@ -3689,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>92</v>
       </c>
@@ -3715,7 +3735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>93</v>
       </c>
@@ -3741,7 +3761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>94</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>95</v>
       </c>
@@ -3793,7 +3813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>96</v>
       </c>
@@ -3816,7 +3836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>97</v>
       </c>
@@ -3839,7 +3859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>196</v>
       </c>
@@ -3848,12 +3868,12 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>98</v>
       </c>
@@ -3879,7 +3899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>99</v>
       </c>
@@ -3905,7 +3925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>100</v>
       </c>
@@ -3931,7 +3951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>101</v>
       </c>
@@ -3957,7 +3977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>102</v>
       </c>
@@ -3983,7 +4003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>103</v>
       </c>
@@ -4009,7 +4029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>197</v>
       </c>
@@ -4018,12 +4038,12 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B161" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>104</v>
       </c>
@@ -4049,7 +4069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>105</v>
       </c>
@@ -4075,7 +4095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>106</v>
       </c>
@@ -4101,7 +4121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>107</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>108</v>
       </c>
@@ -4153,23 +4173,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>109</v>
       </c>
@@ -4195,7 +4215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>110</v>
       </c>
@@ -4221,7 +4241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>111</v>
       </c>
@@ -4247,7 +4267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>112</v>
       </c>
@@ -4273,7 +4293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>113</v>
       </c>
@@ -4299,7 +4319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>114</v>
       </c>
@@ -4325,17 +4345,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>115</v>
       </c>
@@ -4361,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>116</v>
       </c>
@@ -4387,7 +4407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>117</v>
       </c>
@@ -4413,7 +4433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>118</v>
       </c>
@@ -4439,7 +4459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>119</v>
       </c>
@@ -4465,46 +4485,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B187" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G188" s="8"/>
       <c r="I188" s="9"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G189" s="8"/>
       <c r="I189" s="9"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G190" s="8"/>
       <c r="I190" s="9"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B191" s="6" t="s">
         <v>187</v>
       </c>
       <c r="G191" s="8"/>
       <c r="I191" s="9"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
         <v>105</v>
       </c>
       <c r="G192" s="8"/>
       <c r="I192" s="9"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="6" t="s">
         <v>174</v>
       </c>
